--- a/files/xx.xlsx
+++ b/files/xx.xlsx
@@ -324,197 +324,197 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-29054.47117115517</v>
+        <v>45.94762297566805</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>173.80689529519842</v>
+        <v>63.76964712149403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-17190.73539675883</v>
+        <v>256.29753108045765</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>435.5178966409759</v>
+        <v>-281.5394740098854</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-23572.450200703093</v>
+        <v>-1318.2391513365494</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>688.0337494191135</v>
+        <v>570.0984503693627</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-847152.4033127993</v>
+        <v>-231.6248611807106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>4087.284820707238</v>
+        <v>-92.86529235509614</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-81405.58518998307</v>
+        <v>-122.34876383276946</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>4789.475087311386</v>
+        <v>-1044.6825890045768</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-40846.37381332152</v>
+        <v>335.5650858865324</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>31688.496003299475</v>
+        <v>150.37569546627108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-79442.81707813632</v>
+        <v>255.13219156494978</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>51247.45949361451</v>
+        <v>540.9146946403488</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>343095.2271932394</v>
+        <v>362.5308003286308</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>129158.5412108235</v>
+        <v>583.8271791833589</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>26444.439223270645</v>
+        <v>2104.471467781658</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>25137.97095422172</v>
+        <v>-481.6756195454191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-32382.09541855455</v>
+        <v>-204.25326520871886</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>36082.33946519619</v>
+        <v>-177.87419107331007</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>218665.06024774868</v>
+        <v>-159.34478271526226</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>59683.17105577749</v>
+        <v>-143.82317645742933</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>-7033114.273178666</v>
+        <v>-162.38633385877236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>26804.329514255453</v>
+        <v>-299.3799197300855</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>-49702.05057379485</v>
+        <v>-613.9694053813023</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>-263365.4259673993</v>
+        <v>38916.72745079407</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>-232553.41951689206</v>
+        <v>11939.79851402091</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>-392213.0918197842</v>
+        <v>696.864025196486</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>69728.84859002264</v>
+        <v>565.4884062286293</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30954.779694405926</v>
+        <v>1145.0278624018836</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1000843.0742750119</v>
+        <v>694.4668530440247</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>283381.72345965396</v>
+        <v>2320.830505914095</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>232308.02862254455</v>
+        <v>2089.1957386603067</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>131424.51877386728</v>
+        <v>-2799.6131897628293</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>53273.73248247328</v>
+        <v>-1784.677794423927</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>2864170.1347496645</v>
+        <v>5229.24438503054</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>93361.02777414946</v>
+        <v>839.7908084523509</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>-153391.56179399858</v>
+        <v>485.6726478357773</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>-47091.20723288096</v>
+        <v>336.5410154939836</v>
       </c>
     </row>
   </sheetData>
